--- a/test/OrdersData.xlsx
+++ b/test/OrdersData.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cri\Cloud\SpeedToValue\Integration_APIs\TheCastle_projects\GIT_Repos\APIs4SaaSDemo\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2A4AEE76-C72A-4E98-9A5D-3ADAADF91074}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0768BAD2-D7FC-4F8E-B443-19B865042E03}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="8895"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="8895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Buyer</t>
-  </si>
-  <si>
     <t>Shipment</t>
   </si>
   <si>
@@ -42,30 +39,9 @@
     <t>Unit price</t>
   </si>
   <si>
-    <t>ContactName</t>
-  </si>
-  <si>
-    <t>ContactMobile</t>
-  </si>
-  <si>
-    <t>ContactEmail</t>
-  </si>
-  <si>
-    <t>ContactAddress</t>
-  </si>
-  <si>
-    <t>ContactNotes</t>
-  </si>
-  <si>
-    <t>OracleContact</t>
-  </si>
-  <si>
     <t>Colourful</t>
   </si>
   <si>
-    <t>Gift</t>
-  </si>
-  <si>
     <t>Country Stores</t>
   </si>
   <si>
@@ -75,18 +51,9 @@
     <t>Carlos</t>
   </si>
   <si>
-    <t>carlos.rodriguez.iturria@oracle.com</t>
-  </si>
-  <si>
-    <t>417 St. Kilda Rd, 3004, Melbourne</t>
-  </si>
-  <si>
     <t>Knock on the door 3 times</t>
   </si>
   <si>
-    <t>joe.rep@oracle.com</t>
-  </si>
-  <si>
     <t>John Martins</t>
   </si>
   <si>
@@ -135,21 +102,6 @@
     <t>Holy</t>
   </si>
   <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Harry</t>
-  </si>
-  <si>
-    <t>Lucas</t>
-  </si>
-  <si>
-    <t>Simon</t>
-  </si>
-  <si>
-    <t>Maria</t>
-  </si>
-  <si>
     <t>john.w@countrystores.com</t>
   </si>
   <si>
@@ -181,12 +133,45 @@
   </si>
   <si>
     <t>Socks</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
+    <t>Barry</t>
+  </si>
+  <si>
+    <t>Tony</t>
+  </si>
+  <si>
+    <t>Rex</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>Product</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1031,21 +1016,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.06640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -1056,976 +1046,430 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="D2">
+        <v>45</v>
+      </c>
+      <c r="E2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2">
-        <v>45</v>
-      </c>
-      <c r="F2">
+      <c r="D3">
+        <v>123</v>
+      </c>
+      <c r="E3">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2">
-        <v>61449588440</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3">
-        <v>123</v>
-      </c>
-      <c r="F3">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
-        <v>61449588440</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>124</v>
       </c>
       <c r="E4">
-        <v>124</v>
-      </c>
-      <c r="F4">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="H4">
-        <v>61449588440</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="J4" t="s">
+      <c r="D5">
+        <v>78</v>
+      </c>
+      <c r="E5">
         <v>18</v>
       </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5">
-        <v>78</v>
-      </c>
-      <c r="F5">
+      <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="E6">
         <v>18</v>
       </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5">
-        <v>61449588440</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6">
-        <v>45</v>
-      </c>
-      <c r="F6">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6">
-        <v>61449588440</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>673</v>
+      </c>
+      <c r="E7">
         <v>15</v>
       </c>
-      <c r="E7">
-        <v>673</v>
-      </c>
-      <c r="F7">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>563</v>
+      </c>
+      <c r="E8">
         <v>15</v>
       </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7">
-        <v>61449588440</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>22</v>
-      </c>
-      <c r="E8">
-        <v>563</v>
-      </c>
-      <c r="F8">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8">
-        <v>61449588440</v>
-      </c>
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>346</v>
       </c>
       <c r="E9">
-        <v>346</v>
-      </c>
-      <c r="F9">
         <v>15</v>
       </c>
-      <c r="G9" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="H9">
-        <v>61449588440</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="J9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="D10">
+        <v>231</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10">
-        <v>231</v>
-      </c>
-      <c r="F10">
+      <c r="D11">
+        <v>57</v>
+      </c>
+      <c r="E11">
         <v>15</v>
       </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10">
-        <v>61449588440</v>
-      </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11">
-        <v>57</v>
-      </c>
-      <c r="F11">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11">
-        <v>61449588440</v>
-      </c>
-      <c r="I11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>35</v>
       </c>
       <c r="E12">
-        <v>35</v>
-      </c>
-      <c r="F12">
         <v>17.32</v>
       </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12">
-        <v>61449588440</v>
-      </c>
-      <c r="I12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>46</v>
       </c>
       <c r="E13">
-        <v>46</v>
-      </c>
-      <c r="F13">
         <v>17.32</v>
       </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13">
-        <v>61449588440</v>
-      </c>
-      <c r="I13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>23</v>
-      </c>
-      <c r="L13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>34</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
       <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>634</v>
+      </c>
+      <c r="E14">
+        <v>17.32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>17.32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>634</v>
-      </c>
-      <c r="F14">
-        <v>17.32</v>
-      </c>
-      <c r="G14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14">
-        <v>61449588440</v>
-      </c>
-      <c r="I14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+      <c r="D16">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17">
         <v>34</v>
       </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15">
+      <c r="E17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="F15">
-        <v>17.32</v>
-      </c>
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15">
-        <v>61449588440</v>
-      </c>
-      <c r="I15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16">
-        <v>13</v>
-      </c>
-      <c r="F16">
+      <c r="D18">
+        <v>121</v>
+      </c>
+      <c r="E18">
         <v>14</v>
       </c>
-      <c r="G16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16">
-        <v>61449588440</v>
-      </c>
-      <c r="I16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17">
-        <v>34</v>
-      </c>
-      <c r="F17">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17">
-        <v>61449588440</v>
-      </c>
-      <c r="I17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18">
-        <v>121</v>
-      </c>
-      <c r="F18">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18">
-        <v>61449588440</v>
-      </c>
-      <c r="I18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
       </c>
       <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>34</v>
+      </c>
+      <c r="E19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>73</v>
+      </c>
+      <c r="E20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>75</v>
+      </c>
+      <c r="E21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
-        <v>34</v>
-      </c>
-      <c r="F19">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19">
-        <v>61449588440</v>
-      </c>
-      <c r="I19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20">
-        <v>73</v>
-      </c>
-      <c r="F20">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20">
-        <v>61449588440</v>
-      </c>
-      <c r="I20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21">
-        <v>75</v>
-      </c>
-      <c r="F21">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21">
-        <v>61449588440</v>
-      </c>
-      <c r="I21" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" t="s">
-        <v>32</v>
-      </c>
-      <c r="L21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>678</v>
       </c>
       <c r="E22">
-        <v>678</v>
-      </c>
-      <c r="F22">
         <v>99.99</v>
       </c>
-      <c r="G22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22">
-        <v>61449588440</v>
-      </c>
-      <c r="I22" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" t="s">
-        <v>19</v>
-      </c>
-      <c r="L22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>112</v>
       </c>
       <c r="E23">
-        <v>112</v>
-      </c>
-      <c r="F23">
         <v>99.99</v>
       </c>
-      <c r="G23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23">
-        <v>61449588440</v>
-      </c>
-      <c r="I23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" t="s">
-        <v>23</v>
-      </c>
-      <c r="L23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <v>79</v>
+      </c>
+      <c r="E24">
+        <v>99.99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="E24">
-        <v>79</v>
-      </c>
-      <c r="F24">
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25">
+        <v>112</v>
+      </c>
+      <c r="E25">
         <v>99.99</v>
       </c>
-      <c r="G24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24">
-        <v>61449588440</v>
-      </c>
-      <c r="I24" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" t="s">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25">
-        <v>112</v>
-      </c>
-      <c r="F25">
+      <c r="D26">
+        <v>57</v>
+      </c>
+      <c r="E26">
         <v>99.99</v>
-      </c>
-      <c r="G25" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25">
-        <v>61449588440</v>
-      </c>
-      <c r="I25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" t="s">
-        <v>18</v>
-      </c>
-      <c r="K25" t="s">
-        <v>29</v>
-      </c>
-      <c r="L25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26">
-        <v>57</v>
-      </c>
-      <c r="F26">
-        <v>99.99</v>
-      </c>
-      <c r="G26" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26">
-        <v>61449588440</v>
-      </c>
-      <c r="I26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" t="s">
-        <v>18</v>
-      </c>
-      <c r="K26" t="s">
-        <v>32</v>
-      </c>
-      <c r="L26" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2034,11 +1478,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2049,161 +1493,142 @@
     <col min="4" max="4" width="29.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.86328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.53125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
       </c>
       <c r="C2">
         <v>61449588440</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>42</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
       </c>
       <c r="C3">
         <v>61449588440</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>43</v>
-      </c>
-      <c r="E3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
       </c>
       <c r="C4">
         <v>61449588440</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
         <v>44</v>
-      </c>
-      <c r="E4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
       </c>
       <c r="C5">
         <v>61449588440</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
         <v>45</v>
-      </c>
-      <c r="E5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
       </c>
       <c r="C6">
         <v>61449588440</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2220,15 +1645,15 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C2">
         <v>18</v>
@@ -2236,10 +1661,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>15</v>
@@ -2247,10 +1672,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>17.32</v>
@@ -2258,10 +1683,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C5">
         <v>14</v>
@@ -2269,10 +1694,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
         <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>52</v>
       </c>
       <c r="C6">
         <v>99.99</v>

--- a/test/OrdersData.xlsx
+++ b/test/OrdersData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cri\Cloud\SpeedToValue\Integration_APIs\TheCastle_projects\GIT_Repos\APIs4SaaSDemo\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0768BAD2-D7FC-4F8E-B443-19B865042E03}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165E97F1-2F75-43CF-9BAB-DCF2747B753F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="8895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -1017,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="F22" sqref="F22:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1030,7 +1030,7 @@
     <col min="3" max="3" width="20.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -1046,8 +1046,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1063,8 +1066,11 @@
       <c r="E2">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1080,8 +1086,11 @@
       <c r="E3">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1097,8 +1106,11 @@
       <c r="E4">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1114,8 +1126,11 @@
       <c r="E5">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1131,8 +1146,11 @@
       <c r="E6">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1148,8 +1166,11 @@
       <c r="E7">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1165,8 +1186,11 @@
       <c r="E8">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1182,8 +1206,11 @@
       <c r="E9">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1199,8 +1226,11 @@
       <c r="E10">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1216,8 +1246,11 @@
       <c r="E11">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1233,8 +1266,11 @@
       <c r="E12">
         <v>17.32</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1250,8 +1286,11 @@
       <c r="E13">
         <v>17.32</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1267,8 +1306,11 @@
       <c r="E14">
         <v>17.32</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1284,8 +1326,11 @@
       <c r="E15">
         <v>17.32</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1301,8 +1346,11 @@
       <c r="E16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1318,8 +1366,11 @@
       <c r="E17">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1335,8 +1386,11 @@
       <c r="E18">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1352,8 +1406,11 @@
       <c r="E19">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1369,8 +1426,11 @@
       <c r="E20">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1386,8 +1446,11 @@
       <c r="E21">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1403,8 +1466,11 @@
       <c r="E22">
         <v>99.99</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1420,8 +1486,11 @@
       <c r="E23">
         <v>99.99</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1437,8 +1506,11 @@
       <c r="E24">
         <v>99.99</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1454,8 +1526,11 @@
       <c r="E25">
         <v>99.99</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1470,6 +1545,9 @@
       </c>
       <c r="E26">
         <v>99.99</v>
+      </c>
+      <c r="F26" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1482,7 +1560,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
